--- a/biology/Botanique/Virus_A_de_la_pomme_de_terre/Virus_A_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Virus_A_de_la_pomme_de_terre/Virus_A_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potato virus A
 Le Virus A de la pomme de terre, PVA, sigle de Potato virus A, est un phytovirus pathogène de la famille des Potyviridae, responsable de symptômes en mosaïque plus ou moins marquée sur le feuillage de la pomme de terre (Solanum tuberosum). C'est l'un des plus importants virus affectant les cultures de pomme de terre. Il reste à l'état latent en cas d'infection primaire, mais peut induire des baisses de rendement sensibles en cas d'infection secondaire. Il peut aussi infecter de nombreuses autres espèces de Solanaceae.
